--- a/in/a.xlsx
+++ b/in/a.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>abc</t>
   </si>
@@ -42,25 +37,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,26 +72,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle hidden="0" name="highlight" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -353,16 +367,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,678 +403,683 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:7">
+      <c r="A2" t="n">
         <v>12</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>24</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>4344</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>5792</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>11240.8888888889</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:7">
+      <c r="A3" t="n">
         <v>24</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>4344</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>5792</v>
       </c>
-      <c r="D3">
-        <v>9154.6666666666697</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="n">
+        <v>9154.66666666667</v>
+      </c>
+      <c r="E3" t="n">
         <v>14178.0740740741</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:7">
+      <c r="A4" t="n">
         <v>4344</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>5792</v>
       </c>
-      <c r="C4">
-        <v>9154.6666666666697</v>
-      </c>
-      <c r="D4">
+      <c r="C4" t="n">
+        <v>9154.66666666667</v>
+      </c>
+      <c r="D4" t="n">
         <v>11240.8888888889</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>16902.5185185185</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>4</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:7">
+      <c r="A5" t="n">
         <v>5792</v>
       </c>
-      <c r="B5">
-        <v>9154.6666666666697</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="n">
+        <v>9154.66666666667</v>
+      </c>
+      <c r="C5" t="n">
         <v>11240.8888888889</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>14178.0740740741</v>
       </c>
-      <c r="E5">
-        <v>19768.790123456802</v>
-      </c>
-      <c r="F5">
-        <v>5.6666666666666696</v>
-      </c>
-      <c r="G5">
+      <c r="E5" t="n">
+        <v>19768.7901234568</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.66666666666667</v>
+      </c>
+      <c r="G5" t="n">
         <v>25.6666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:7">
+      <c r="A6" t="n">
         <v>7958</v>
       </c>
-      <c r="B6">
-        <v>12038.666666666701</v>
-      </c>
-      <c r="C6">
-        <v>13646.222222222201</v>
-      </c>
-      <c r="D6">
+      <c r="B6" t="n">
+        <v>12038.6666666667</v>
+      </c>
+      <c r="C6" t="n">
+        <v>13646.2222222222</v>
+      </c>
+      <c r="D6" t="n">
         <v>16902.5185185185</v>
       </c>
-      <c r="E6">
-        <v>22599.604938271601</v>
-      </c>
-      <c r="F6">
-        <v>7.1666666666666696</v>
-      </c>
-      <c r="G6">
+      <c r="E6" t="n">
+        <v>22599.6049382716</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7.16666666666667</v>
+      </c>
+      <c r="G6" t="n">
         <v>27.1666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:7">
+      <c r="A7" t="n">
         <v>10124</v>
       </c>
-      <c r="B7">
-        <v>14922.666666666701</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="n">
+        <v>14922.6666666667</v>
+      </c>
+      <c r="C7" t="n">
         <v>16051.5555555556</v>
       </c>
-      <c r="D7">
-        <v>19626.962962962902</v>
-      </c>
-      <c r="E7">
+      <c r="D7" t="n">
+        <v>19626.9629629629</v>
+      </c>
+      <c r="E7" t="n">
         <v>25430.4197530864</v>
       </c>
-      <c r="F7">
-        <v>8.6666666666666696</v>
-      </c>
-      <c r="G7">
+      <c r="F7" t="n">
+        <v>8.66666666666667</v>
+      </c>
+      <c r="G7" t="n">
         <v>28.6666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:7">
+      <c r="A8" t="n">
         <v>12290</v>
       </c>
-      <c r="B8">
-        <v>17806.666666666701</v>
-      </c>
-      <c r="C8">
-        <v>18456.888888888901</v>
-      </c>
-      <c r="D8">
-        <v>22351.407407407401</v>
-      </c>
-      <c r="E8">
+      <c r="B8" t="n">
+        <v>17806.6666666667</v>
+      </c>
+      <c r="C8" t="n">
+        <v>18456.8888888889</v>
+      </c>
+      <c r="D8" t="n">
+        <v>22351.4074074074</v>
+      </c>
+      <c r="E8" t="n">
         <v>28261.2345679012</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>10.1666666666667</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>30.1666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:7">
+      <c r="A9" t="n">
         <v>14456</v>
       </c>
-      <c r="B9">
-        <v>20690.666666666701</v>
-      </c>
-      <c r="C9">
-        <v>20862.222222222201</v>
-      </c>
-      <c r="D9">
-        <v>25075.851851851799</v>
-      </c>
-      <c r="E9">
-        <v>31092.049382715999</v>
-      </c>
-      <c r="F9">
+      <c r="B9" t="n">
+        <v>20690.6666666667</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20862.2222222222</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25075.8518518518</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>31092.049382716</v>
+      </c>
+      <c r="F9" t="n">
         <v>11.6666666666667</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>31.6666666666667</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:7">
+      <c r="A10" t="n">
         <v>16622</v>
       </c>
-      <c r="B10">
-        <v>23574.666666666701</v>
-      </c>
-      <c r="C10">
-        <v>23267.555555555598</v>
-      </c>
-      <c r="D10">
-        <v>27800.296296296299</v>
-      </c>
-      <c r="E10">
-        <v>33922.864197530798</v>
-      </c>
-      <c r="F10">
+      <c r="B10" t="n">
+        <v>23574.6666666667</v>
+      </c>
+      <c r="C10" t="n">
+        <v>23267.5555555556</v>
+      </c>
+      <c r="D10" t="n">
+        <v>27800.2962962963</v>
+      </c>
+      <c r="E10" t="n">
+        <v>33922.8641975308</v>
+      </c>
+      <c r="F10" t="n">
         <v>13.1666666666667</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>33.1666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:7">
+      <c r="A11" t="n">
         <v>18788</v>
       </c>
-      <c r="B11">
-        <v>26458.666666666701</v>
-      </c>
-      <c r="C11">
-        <v>25672.888888888901</v>
-      </c>
-      <c r="D11">
-        <v>30524.740740740701</v>
-      </c>
-      <c r="E11">
-        <v>36753.679012345601</v>
-      </c>
-      <c r="F11">
+      <c r="B11" t="n">
+        <v>26458.6666666667</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25672.8888888889</v>
+      </c>
+      <c r="D11" t="n">
+        <v>30524.7407407407</v>
+      </c>
+      <c r="E11" t="n">
+        <v>36753.6790123456</v>
+      </c>
+      <c r="F11" t="n">
         <v>14.6666666666667</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>34.6666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:7">
+      <c r="A12" t="n">
         <v>20954</v>
       </c>
-      <c r="B12">
-        <v>29342.666666666701</v>
-      </c>
-      <c r="C12">
-        <v>28078.222222222299</v>
-      </c>
-      <c r="D12">
-        <v>33249.185185185197</v>
-      </c>
-      <c r="E12">
-        <v>39584.493827160397</v>
-      </c>
-      <c r="F12">
+      <c r="B12" t="n">
+        <v>29342.6666666667</v>
+      </c>
+      <c r="C12" t="n">
+        <v>28078.2222222223</v>
+      </c>
+      <c r="D12" t="n">
+        <v>33249.1851851852</v>
+      </c>
+      <c r="E12" t="n">
+        <v>39584.4938271604</v>
+      </c>
+      <c r="F12" t="n">
         <v>16.1666666666667</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>36.1666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:7">
+      <c r="A13" t="n">
         <v>23120</v>
       </c>
-      <c r="B13">
-        <v>32226.666666666701</v>
-      </c>
-      <c r="C13">
-        <v>30483.555555555598</v>
-      </c>
-      <c r="D13">
-        <v>35973.629629629599</v>
-      </c>
-      <c r="E13">
+      <c r="B13" t="n">
+        <v>32226.6666666667</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30483.5555555556</v>
+      </c>
+      <c r="D13" t="n">
+        <v>35973.6296296296</v>
+      </c>
+      <c r="E13" t="n">
         <v>42415.3086419752</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>17.6666666666667</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>37.6666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:7">
+      <c r="A14" t="n">
         <v>25286</v>
       </c>
-      <c r="B14">
-        <v>35110.666666666701</v>
-      </c>
-      <c r="C14">
-        <v>32888.888888888898</v>
-      </c>
-      <c r="D14">
-        <v>38698.074074074102</v>
-      </c>
-      <c r="E14">
-        <v>45246.123456790003</v>
-      </c>
-      <c r="F14">
+      <c r="B14" t="n">
+        <v>35110.6666666667</v>
+      </c>
+      <c r="C14" t="n">
+        <v>32888.8888888889</v>
+      </c>
+      <c r="D14" t="n">
+        <v>38698.0740740741</v>
+      </c>
+      <c r="E14" t="n">
+        <v>45246.12345679</v>
+      </c>
+      <c r="F14" t="n">
         <v>19.1666666666667</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>39.1666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:7">
+      <c r="A15" t="n">
         <v>27452</v>
       </c>
-      <c r="B15">
-        <v>37994.666666666701</v>
-      </c>
-      <c r="C15">
-        <v>35294.222222222299</v>
-      </c>
-      <c r="D15">
-        <v>41422.518518518496</v>
-      </c>
-      <c r="E15">
-        <v>48076.938271604799</v>
-      </c>
-      <c r="F15">
+      <c r="B15" t="n">
+        <v>37994.6666666667</v>
+      </c>
+      <c r="C15" t="n">
+        <v>35294.2222222223</v>
+      </c>
+      <c r="D15" t="n">
+        <v>41422.5185185185</v>
+      </c>
+      <c r="E15" t="n">
+        <v>48076.9382716048</v>
+      </c>
+      <c r="F15" t="n">
         <v>20.6666666666667</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>40.6666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:7">
+      <c r="A16" t="n">
         <v>29618</v>
       </c>
-      <c r="B16">
-        <v>40878.666666666701</v>
-      </c>
-      <c r="C16">
-        <v>37699.555555555598</v>
-      </c>
-      <c r="D16">
+      <c r="B16" t="n">
+        <v>40878.6666666667</v>
+      </c>
+      <c r="C16" t="n">
+        <v>37699.5555555556</v>
+      </c>
+      <c r="D16" t="n">
         <v>44146.962962963</v>
       </c>
-      <c r="E16">
-        <v>50907.753086419601</v>
-      </c>
-      <c r="F16">
+      <c r="E16" t="n">
+        <v>50907.7530864196</v>
+      </c>
+      <c r="F16" t="n">
         <v>22.1666666666667</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>42.1666666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:7">
+      <c r="A17" t="n">
         <v>31784</v>
       </c>
-      <c r="B17">
-        <v>43762.666666666701</v>
-      </c>
-      <c r="C17">
-        <v>40104.888888888898</v>
-      </c>
-      <c r="D17">
-        <v>46871.407407407401</v>
-      </c>
-      <c r="E17">
-        <v>53738.567901234397</v>
-      </c>
-      <c r="F17">
+      <c r="B17" t="n">
+        <v>43762.6666666667</v>
+      </c>
+      <c r="C17" t="n">
+        <v>40104.8888888889</v>
+      </c>
+      <c r="D17" t="n">
+        <v>46871.4074074074</v>
+      </c>
+      <c r="E17" t="n">
+        <v>53738.5679012344</v>
+      </c>
+      <c r="F17" t="n">
         <v>23.6666666666667</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>43.6666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:7">
+      <c r="A18" t="n">
         <v>33950</v>
       </c>
-      <c r="B18">
-        <v>46646.666666666701</v>
-      </c>
-      <c r="C18">
-        <v>42510.222222222299</v>
-      </c>
-      <c r="D18">
-        <v>49595.851851851898</v>
-      </c>
-      <c r="E18">
+      <c r="B18" t="n">
+        <v>46646.6666666667</v>
+      </c>
+      <c r="C18" t="n">
+        <v>42510.2222222223</v>
+      </c>
+      <c r="D18" t="n">
+        <v>49595.8518518519</v>
+      </c>
+      <c r="E18" t="n">
         <v>56569.3827160492</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>25.1666666666667</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>45.1666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:7">
+      <c r="A19" t="n">
         <v>36116</v>
       </c>
-      <c r="B19">
-        <v>49530.666666666701</v>
-      </c>
-      <c r="C19">
-        <v>44915.555555555598</v>
-      </c>
-      <c r="D19">
-        <v>52320.296296296299</v>
-      </c>
-      <c r="E19">
-        <v>59400.197530864003</v>
-      </c>
-      <c r="F19">
+      <c r="B19" t="n">
+        <v>49530.6666666667</v>
+      </c>
+      <c r="C19" t="n">
+        <v>44915.5555555556</v>
+      </c>
+      <c r="D19" t="n">
+        <v>52320.2962962963</v>
+      </c>
+      <c r="E19" t="n">
+        <v>59400.197530864</v>
+      </c>
+      <c r="F19" t="n">
         <v>26.6666666666667</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>46.6666666666667</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:7">
+      <c r="A20" t="n">
         <v>38282</v>
       </c>
-      <c r="B20">
-        <v>52414.666666666701</v>
-      </c>
-      <c r="C20">
-        <v>47320.888888888898</v>
-      </c>
-      <c r="D20">
-        <v>55044.740740740803</v>
-      </c>
-      <c r="E20">
-        <v>62231.012345678799</v>
-      </c>
-      <c r="F20">
+      <c r="B20" t="n">
+        <v>52414.6666666667</v>
+      </c>
+      <c r="C20" t="n">
+        <v>47320.8888888889</v>
+      </c>
+      <c r="D20" t="n">
+        <v>55044.7407407408</v>
+      </c>
+      <c r="E20" t="n">
+        <v>62231.0123456788</v>
+      </c>
+      <c r="F20" t="n">
         <v>28.1666666666667</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>48.1666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:7">
+      <c r="A21" t="n">
         <v>40448</v>
       </c>
-      <c r="B21">
-        <v>55298.666666666701</v>
-      </c>
-      <c r="C21">
-        <v>49726.222222222299</v>
-      </c>
-      <c r="D21">
-        <v>57769.185185185197</v>
-      </c>
-      <c r="E21">
-        <v>65061.827160493602</v>
-      </c>
-      <c r="F21">
+      <c r="B21" t="n">
+        <v>55298.6666666667</v>
+      </c>
+      <c r="C21" t="n">
+        <v>49726.2222222223</v>
+      </c>
+      <c r="D21" t="n">
+        <v>57769.1851851852</v>
+      </c>
+      <c r="E21" t="n">
+        <v>65061.8271604936</v>
+      </c>
+      <c r="F21" t="n">
         <v>29.6666666666667</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>49.6666666666667</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:7">
+      <c r="A22" t="n">
         <v>42614</v>
       </c>
-      <c r="B22">
-        <v>58182.666666666701</v>
-      </c>
-      <c r="C22">
-        <v>52131.555555555598</v>
-      </c>
-      <c r="D22">
-        <v>60493.629629629701</v>
-      </c>
-      <c r="E22">
-        <v>67892.641975308405</v>
-      </c>
-      <c r="F22">
+      <c r="B22" t="n">
+        <v>58182.6666666667</v>
+      </c>
+      <c r="C22" t="n">
+        <v>52131.5555555556</v>
+      </c>
+      <c r="D22" t="n">
+        <v>60493.6296296297</v>
+      </c>
+      <c r="E22" t="n">
+        <v>67892.6419753084</v>
+      </c>
+      <c r="F22" t="n">
         <v>31.1666666666667</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>51.1666666666667</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:7">
+      <c r="A23" t="n">
         <v>44780</v>
       </c>
-      <c r="B23">
-        <v>61066.666666666701</v>
-      </c>
-      <c r="C23">
-        <v>54536.888888888898</v>
-      </c>
-      <c r="D23">
-        <v>63218.074074074102</v>
-      </c>
-      <c r="E23">
-        <v>70723.456790123193</v>
-      </c>
-      <c r="F23">
+      <c r="B23" t="n">
+        <v>61066.6666666667</v>
+      </c>
+      <c r="C23" t="n">
+        <v>54536.8888888889</v>
+      </c>
+      <c r="D23" t="n">
+        <v>63218.0740740741</v>
+      </c>
+      <c r="E23" t="n">
+        <v>70723.45679012319</v>
+      </c>
+      <c r="F23" t="n">
         <v>32.6666666666667</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>52.6666666666667</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:7">
+      <c r="A24" t="n">
         <v>46946</v>
       </c>
-      <c r="B24">
-        <v>63950.666666666701</v>
-      </c>
-      <c r="C24">
-        <v>56942.222222222299</v>
-      </c>
-      <c r="D24">
-        <v>65942.518518518598</v>
-      </c>
-      <c r="E24">
-        <v>73554.271604937996</v>
-      </c>
-      <c r="F24">
+      <c r="B24" t="n">
+        <v>63950.6666666667</v>
+      </c>
+      <c r="C24" t="n">
+        <v>56942.2222222223</v>
+      </c>
+      <c r="D24" t="n">
+        <v>65942.5185185186</v>
+      </c>
+      <c r="E24" t="n">
+        <v>73554.271604938</v>
+      </c>
+      <c r="F24" t="n">
         <v>34.1666666666667</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>54.1666666666667</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:7">
+      <c r="A25" t="n">
         <v>49112</v>
       </c>
-      <c r="B25">
-        <v>66834.666666666701</v>
-      </c>
-      <c r="C25">
-        <v>59347.555555555598</v>
-      </c>
-      <c r="D25">
-        <v>68666.962962963007</v>
-      </c>
-      <c r="E25">
-        <v>76385.086419752799</v>
-      </c>
-      <c r="F25">
+      <c r="B25" t="n">
+        <v>66834.6666666667</v>
+      </c>
+      <c r="C25" t="n">
+        <v>59347.5555555556</v>
+      </c>
+      <c r="D25" t="n">
+        <v>68666.96296296301</v>
+      </c>
+      <c r="E25" t="n">
+        <v>76385.0864197528</v>
+      </c>
+      <c r="F25" t="n">
         <v>35.6666666666667</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>55.6666666666667</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:7">
+      <c r="A26" t="n">
         <v>51278</v>
       </c>
-      <c r="B26">
-        <v>69718.666666666701</v>
-      </c>
-      <c r="C26">
-        <v>61752.888888888898</v>
-      </c>
-      <c r="D26">
-        <v>71391.407407407503</v>
-      </c>
-      <c r="E26">
-        <v>79215.901234567602</v>
-      </c>
-      <c r="F26">
+      <c r="B26" t="n">
+        <v>69718.6666666667</v>
+      </c>
+      <c r="C26" t="n">
+        <v>61752.8888888889</v>
+      </c>
+      <c r="D26" t="n">
+        <v>71391.4074074075</v>
+      </c>
+      <c r="E26" t="n">
+        <v>79215.9012345676</v>
+      </c>
+      <c r="F26" t="n">
         <v>37.1666666666667</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>57.1666666666667</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:7">
+      <c r="A27" t="n">
         <v>53444</v>
       </c>
-      <c r="B27">
-        <v>72602.666666666701</v>
-      </c>
-      <c r="C27">
-        <v>64158.222222222299</v>
-      </c>
-      <c r="D27">
-        <v>74115.851851851898</v>
-      </c>
-      <c r="E27">
-        <v>82046.716049382405</v>
-      </c>
-      <c r="F27">
+      <c r="B27" t="n">
+        <v>72602.6666666667</v>
+      </c>
+      <c r="C27" t="n">
+        <v>64158.2222222223</v>
+      </c>
+      <c r="D27" t="n">
+        <v>74115.8518518519</v>
+      </c>
+      <c r="E27" t="n">
+        <v>82046.7160493824</v>
+      </c>
+      <c r="F27" t="n">
         <v>38.6666666666667</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="n">
         <v>58.6666666666667</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:7">
+      <c r="A28" t="n">
         <v>55610</v>
       </c>
-      <c r="B28">
-        <v>75486.666666666701</v>
-      </c>
-      <c r="C28">
-        <v>66563.555555555606</v>
-      </c>
-      <c r="D28">
-        <v>76840.296296296394</v>
-      </c>
-      <c r="E28">
-        <v>84877.530864197193</v>
-      </c>
-      <c r="F28">
+      <c r="B28" t="n">
+        <v>75486.6666666667</v>
+      </c>
+      <c r="C28" t="n">
+        <v>66563.55555555561</v>
+      </c>
+      <c r="D28" t="n">
+        <v>76840.29629629639</v>
+      </c>
+      <c r="E28" t="n">
+        <v>84877.53086419719</v>
+      </c>
+      <c r="F28" t="n">
         <v>40.1666666666667</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>60.1666666666667</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:7">
+      <c r="A29" t="n">
         <v>57776</v>
       </c>
-      <c r="B29">
-        <v>78370.666666666701</v>
-      </c>
-      <c r="C29">
-        <v>68968.888888888905</v>
-      </c>
-      <c r="D29">
-        <v>79564.740740740803</v>
-      </c>
-      <c r="E29">
-        <v>87708.345679011996</v>
-      </c>
-      <c r="F29">
+      <c r="B29" t="n">
+        <v>78370.6666666667</v>
+      </c>
+      <c r="C29" t="n">
+        <v>68968.88888888891</v>
+      </c>
+      <c r="D29" t="n">
+        <v>79564.7407407408</v>
+      </c>
+      <c r="E29" t="n">
+        <v>87708.345679012</v>
+      </c>
+      <c r="F29" t="n">
         <v>41.6666666666667</v>
       </c>
-      <c r="G29">
-        <v>61.666666666666799</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="G29" t="n">
+        <v>61.6666666666668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="n">
         <v>59942</v>
       </c>
-      <c r="B30">
-        <v>81254.666666666701</v>
-      </c>
-      <c r="C30">
-        <v>71374.222222222306</v>
-      </c>
-      <c r="D30">
-        <v>82289.185185185299</v>
-      </c>
-      <c r="E30">
-        <v>90539.160493826799</v>
-      </c>
-      <c r="F30">
+      <c r="B30" t="n">
+        <v>81254.6666666667</v>
+      </c>
+      <c r="C30" t="n">
+        <v>71374.22222222231</v>
+      </c>
+      <c r="D30" t="n">
+        <v>82289.1851851853</v>
+      </c>
+      <c r="E30" t="n">
+        <v>90539.1604938268</v>
+      </c>
+      <c r="F30" t="n">
         <v>43.1666666666667</v>
       </c>
-      <c r="G30">
-        <v>63.166666666666799</v>
+      <c r="G30" t="n">
+        <v>63.1666666666668</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;7 Sensitivity: Internal &amp; Restricted</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Arial"&amp;7 #Sensitivity: Internal &amp; Restricted</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/in/a.xlsx
+++ b/in/a.xlsx
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -55,13 +55,46 @@
       <b val="1"/>
       <sz val="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="0"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <bgColor rgb="ff330000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <bgColor rgb="00ff3300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="00ffffff"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -88,18 +121,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle hidden="0" name="highlight" xfId="1"/>
+    <cellStyle builtinId="52" hidden="0" name="60 % - Accent6" xfId="2"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -372,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
@@ -380,7 +424,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,7 +447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:13">
       <c r="A2" t="n">
         <v>12</v>
       </c>
@@ -426,7 +470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:13">
       <c r="A3" t="n">
         <v>24</v>
       </c>
@@ -449,7 +493,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:13">
       <c r="A4" t="n">
         <v>4344</v>
       </c>
@@ -472,7 +516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:13">
       <c r="A5" t="n">
         <v>5792</v>
       </c>
@@ -495,7 +539,7 @@
         <v>25.6666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:13">
       <c r="A6" t="n">
         <v>7958</v>
       </c>
@@ -518,7 +562,7 @@
         <v>27.1666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:13">
       <c r="A7" t="n">
         <v>10124</v>
       </c>
@@ -541,7 +585,7 @@
         <v>28.6666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:13">
       <c r="A8" t="n">
         <v>12290</v>
       </c>
@@ -564,7 +608,7 @@
         <v>30.1666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:13">
       <c r="A9" t="n">
         <v>14456</v>
       </c>
@@ -587,7 +631,7 @@
         <v>31.6666666666667</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:13">
       <c r="A10" t="n">
         <v>16622</v>
       </c>
@@ -610,7 +654,7 @@
         <v>33.1666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:13">
       <c r="A11" t="n">
         <v>18788</v>
       </c>
@@ -633,7 +677,7 @@
         <v>34.6666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:13">
       <c r="A12" t="n">
         <v>20954</v>
       </c>
@@ -656,7 +700,7 @@
         <v>36.1666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:13">
       <c r="A13" t="n">
         <v>23120</v>
       </c>
@@ -679,7 +723,7 @@
         <v>37.6666666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:13">
       <c r="A14" t="n">
         <v>25286</v>
       </c>
@@ -702,7 +746,7 @@
         <v>39.1666666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:13">
       <c r="A15" t="n">
         <v>27452</v>
       </c>
@@ -725,7 +769,7 @@
         <v>40.6666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:13">
       <c r="A16" t="n">
         <v>29618</v>
       </c>
@@ -748,7 +792,7 @@
         <v>42.1666666666667</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:13">
       <c r="A17" t="n">
         <v>31784</v>
       </c>
@@ -771,7 +815,7 @@
         <v>43.6666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:13">
       <c r="A18" t="n">
         <v>33950</v>
       </c>
@@ -794,7 +838,7 @@
         <v>45.1666666666667</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:13">
       <c r="A19" t="n">
         <v>36116</v>
       </c>
@@ -817,7 +861,7 @@
         <v>46.6666666666667</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:13">
       <c r="A20" t="n">
         <v>38282</v>
       </c>
@@ -840,7 +884,7 @@
         <v>48.1666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:13">
       <c r="A21" t="n">
         <v>40448</v>
       </c>
@@ -863,7 +907,7 @@
         <v>49.6666666666667</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:13">
       <c r="A22" t="n">
         <v>42614</v>
       </c>
@@ -886,7 +930,7 @@
         <v>51.1666666666667</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:13">
       <c r="A23" t="n">
         <v>44780</v>
       </c>
@@ -909,7 +953,7 @@
         <v>52.6666666666667</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:13">
       <c r="A24" t="n">
         <v>46946</v>
       </c>
@@ -932,7 +976,7 @@
         <v>54.1666666666667</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:13">
       <c r="A25" t="n">
         <v>49112</v>
       </c>
@@ -955,7 +999,7 @@
         <v>55.6666666666667</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:13">
       <c r="A26" t="n">
         <v>51278</v>
       </c>
@@ -978,7 +1022,7 @@
         <v>57.1666666666667</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:13">
       <c r="A27" t="n">
         <v>53444</v>
       </c>
@@ -1001,30 +1045,45 @@
         <v>58.6666666666667</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:13">
       <c r="A28" t="n">
         <v>55610</v>
       </c>
       <c r="B28" t="n">
         <v>75486.6666666667</v>
       </c>
-      <c r="C28" t="n">
-        <v>66563.55555555561</v>
+      <c r="C28" s="5">
+        <f>COUNTA(C8:C24)</f>
+        <v/>
       </c>
       <c r="D28" t="n">
         <v>76840.29629629639</v>
       </c>
-      <c r="E28" t="n">
-        <v>84877.53086419719</v>
+      <c r="E28" s="5">
+        <f>COUNTA(C8:C24)</f>
+        <v/>
       </c>
       <c r="F28" t="n">
         <v>40.1666666666667</v>
       </c>
-      <c r="G28" t="n">
-        <v>60.1666666666667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="G28" s="5">
+        <f>COUNTA(C8:C24)</f>
+        <v/>
+      </c>
+      <c r="I28" s="5">
+        <f>COUNTA(C8:C24)</f>
+        <v/>
+      </c>
+      <c r="K28" s="5">
+        <f>COUNTA(C8:C24)</f>
+        <v/>
+      </c>
+      <c r="M28" s="9">
+        <f>COUNTA(C8:C24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="n">
         <v>57776</v>
       </c>
@@ -1047,7 +1106,7 @@
         <v>61.6666666666668</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:13">
       <c r="A30" t="n">
         <v>59942</v>
       </c>
